--- a/artfynd/A 28577-2021.xlsx
+++ b/artfynd/A 28577-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64827904</v>
+        <v>64827847</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>78527</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>229497</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1,4 km SO Granslätt, Upl</t>
+          <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>628140.2226050863</v>
+        <v>627903.8898191882</v>
       </c>
       <c r="R2" t="n">
-        <v>6647227.835249735</v>
+        <v>6647510.497989063</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +779,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>torrgran i äldre barrskog</t>
+          <t>på ekstam i äldre barrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64827847</v>
+        <v>64827854</v>
       </c>
       <c r="B3" t="n">
-        <v>78527</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>627903.8898191882</v>
+        <v>628036.9589581968</v>
       </c>
       <c r="R3" t="n">
-        <v>6647510.497989063</v>
+        <v>6647511.595376587</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -901,7 +896,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>på ekstam i äldre barrskog</t>
+          <t>granlåga i äldre barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -919,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64827854</v>
+        <v>64827856</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>4711</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,38 +926,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>628036.9589581968</v>
+        <v>628033.8879260647</v>
       </c>
       <c r="R4" t="n">
-        <v>6647511.595376587</v>
+        <v>6647600.243524536</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>granlåga i äldre barrskog</t>
+          <t>torrgran i äldre barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64827856</v>
+        <v>64827848</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,43 +1048,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>628033.8879260647</v>
+        <v>627903.4902139499</v>
       </c>
       <c r="R5" t="n">
-        <v>6647600.243524536</v>
+        <v>6647536.559091467</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,7 +1135,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>torrgran i äldre barrskog</t>
+          <t>granlåga i äldre barrskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1158,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64827905</v>
+        <v>64827855</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,14 +1194,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1,4 km SO Granslätt, Upl</t>
+          <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>628140.2226050863</v>
+        <v>628033.8879260647</v>
       </c>
       <c r="R6" t="n">
-        <v>6647227.835249735</v>
+        <v>6647600.243524536</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1280,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64827848</v>
+        <v>64827853</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,38 +1287,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>627903.4902139499</v>
+        <v>628036.9589581968</v>
       </c>
       <c r="R7" t="n">
-        <v>6647536.559091467</v>
+        <v>6647511.595376587</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64827855</v>
+        <v>84613263</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1413,39 +1413,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1 km SO Granslätt, Upl</t>
+          <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>628033.8879260647</v>
+        <v>627922.1188322133</v>
       </c>
       <c r="R8" t="n">
-        <v>6647600.243524536</v>
+        <v>6647578.823052276</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1467,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1482,7 +1477,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1498,31 +1493,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>torrgran i äldre barrskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64827853</v>
+        <v>84613256</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,43 +1521,46 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1 km SO Granslätt, Upl</t>
+          <t>Möjsjön, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>628036.9589581968</v>
+        <v>627928.1021937983</v>
       </c>
       <c r="R9" t="n">
-        <v>6647511.595376587</v>
+        <v>6647609.116061535</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,7 +1587,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1604,7 +1597,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1612,6 +1605,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska födosöksspår på torraka vid kärr</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1620,31 +1618,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>granlåga i äldre barrskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84613263</v>
+        <v>84613255</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1653,38 +1646,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>627922.1188322133</v>
+        <v>627928.1778969041</v>
       </c>
       <c r="R10" t="n">
-        <v>6647578.823052276</v>
+        <v>6647519.863120899</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,6 +1728,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Gamla födosöksspår på låga</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1753,10 +1759,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84613256</v>
+        <v>84613262</v>
       </c>
       <c r="B11" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,46 +1771,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Möjsjön, Upl</t>
+          <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>627928.1021937983</v>
+        <v>628054.0275574103</v>
       </c>
       <c r="R11" t="n">
-        <v>6647609.116061535</v>
+        <v>6647569.852351952</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,7 +1829,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1841,17 +1839,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Färska födosöksspår på torraka vid kärr</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1878,10 +1871,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84613255</v>
+        <v>64827904</v>
       </c>
       <c r="B12" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1890,46 +1883,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bondkrokskärret, Upl</t>
+          <t>1,4 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>627928.1778969041</v>
+        <v>628140.2226050863</v>
       </c>
       <c r="R12" t="n">
-        <v>6647519.863120899</v>
+        <v>6647227.835249735</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1956,7 +1946,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1966,7 +1956,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1974,11 +1964,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Gamla födosöksspår på låga</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1987,26 +1972,31 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>torrgran i äldre barrskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84613262</v>
+        <v>64827905</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>4711</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,34 +2009,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>100299</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bondkrokskärret, Upl</t>
+          <t>1,4 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>628054.0275574103</v>
+        <v>628140.2226050863</v>
       </c>
       <c r="R13" t="n">
-        <v>6647569.852351952</v>
+        <v>6647227.835249735</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,7 +2068,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2083,7 +2078,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2099,16 +2094,21 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>torrgran i äldre barrskog</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 28577-2021.xlsx
+++ b/artfynd/A 28577-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64827847</v>
+        <v>64827904</v>
       </c>
       <c r="B2" t="n">
-        <v>78527</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229497</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1 km SO Granslätt, Upl</t>
+          <t>1,4 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>627903.8898191882</v>
+        <v>628140.2226050863</v>
       </c>
       <c r="R2" t="n">
-        <v>6647510.497989063</v>
+        <v>6647227.835249735</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +784,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>på ekstam i äldre barrskog</t>
+          <t>torrgran i äldre barrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64827854</v>
+        <v>64827847</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>78527</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +814,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>628036.9589581968</v>
+        <v>627903.8898191882</v>
       </c>
       <c r="R3" t="n">
-        <v>6647511.595376587</v>
+        <v>6647510.497989063</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,7 +901,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>granlåga i äldre barrskog</t>
+          <t>på ekstam i äldre barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -914,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64827856</v>
+        <v>64827854</v>
       </c>
       <c r="B4" t="n">
-        <v>4711</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,43 +931,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>628033.8879260647</v>
+        <v>628036.9589581968</v>
       </c>
       <c r="R4" t="n">
-        <v>6647600.243524536</v>
+        <v>6647511.595376587</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>torrgran i äldre barrskog</t>
+          <t>granlåga i äldre barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64827848</v>
+        <v>64827856</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,38 +1048,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>627903.4902139499</v>
+        <v>628033.8879260647</v>
       </c>
       <c r="R5" t="n">
-        <v>6647536.559091467</v>
+        <v>6647600.243524536</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,7 +1140,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>granlåga i äldre barrskog</t>
+          <t>torrgran i äldre barrskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1153,10 +1158,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64827855</v>
+        <v>64827905</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1174,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1194,14 +1199,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1 km SO Granslätt, Upl</t>
+          <t>1,4 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>628033.8879260647</v>
+        <v>628140.2226050863</v>
       </c>
       <c r="R6" t="n">
-        <v>6647600.243524536</v>
+        <v>6647227.835249735</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1275,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64827853</v>
+        <v>64827848</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,43 +1292,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>628036.9589581968</v>
+        <v>627903.4902139499</v>
       </c>
       <c r="R7" t="n">
-        <v>6647511.595376587</v>
+        <v>6647536.559091467</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84613263</v>
+        <v>64827855</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1413,34 +1413,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bondkrokskärret, Upl</t>
+          <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>627922.1188322133</v>
+        <v>628033.8879260647</v>
       </c>
       <c r="R8" t="n">
-        <v>6647578.823052276</v>
+        <v>6647600.243524536</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1467,7 +1472,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1477,7 +1482,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1493,26 +1498,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>torrgran i äldre barrskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84613256</v>
+        <v>64827853</v>
       </c>
       <c r="B9" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,46 +1531,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Möjsjön, Upl</t>
+          <t>1 km SO Granslätt, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>627928.1021937983</v>
+        <v>628036.9589581968</v>
       </c>
       <c r="R9" t="n">
-        <v>6647609.116061535</v>
+        <v>6647511.595376587</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1587,7 +1594,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1597,7 +1604,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2017-04-02</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1605,11 +1612,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Färska födosöksspår på torraka vid kärr</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1618,26 +1620,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>granlåga i äldre barrskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Nike Nylander</t>
+          <t>Olof Hedgren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84613255</v>
+        <v>84613263</v>
       </c>
       <c r="B10" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1646,46 +1653,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>627928.1778969041</v>
+        <v>627922.1188322133</v>
       </c>
       <c r="R10" t="n">
-        <v>6647519.863120899</v>
+        <v>6647578.823052276</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1728,11 +1727,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gamla födosöksspår på låga</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1759,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84613262</v>
+        <v>84613256</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1771,38 +1765,46 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bondkrokskärret, Upl</t>
+          <t>Möjsjön, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>628054.0275574103</v>
+        <v>627928.1021937983</v>
       </c>
       <c r="R11" t="n">
-        <v>6647569.852351952</v>
+        <v>6647609.116061535</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1829,7 +1831,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1839,12 +1841,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Färska födosöksspår på torraka vid kärr</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1871,10 +1878,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>64827904</v>
+        <v>84613255</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1883,43 +1890,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1,4 km SO Granslätt, Upl</t>
+          <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>628140.2226050863</v>
+        <v>627928.1778969041</v>
       </c>
       <c r="R12" t="n">
-        <v>6647227.835249735</v>
+        <v>6647519.863120899</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1946,7 +1956,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1956,7 +1966,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1964,6 +1974,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Gamla födosöksspår på låga</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1972,31 +1987,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>torrgran i äldre barrskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>64827905</v>
+        <v>84613262</v>
       </c>
       <c r="B13" t="n">
-        <v>4711</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2009,39 +2019,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100299</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1,4 km SO Granslätt, Upl</t>
+          <t>Bondkrokskärret, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>628140.2226050863</v>
+        <v>628054.0275574103</v>
       </c>
       <c r="R13" t="n">
-        <v>6647227.835249735</v>
+        <v>6647569.852351952</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2068,7 +2073,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2078,7 +2083,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2017-04-02</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2094,21 +2099,16 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>torrgran i äldre barrskog</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Olof Hedgren</t>
+          <t>Nike Nylander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
